--- a/OnBoard/output/trust/bio/Bio_Trust_36.xlsx
+++ b/OnBoard/output/trust/bio/Bio_Trust_36.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q198"/>
+  <dimension ref="A1:Q121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6354,3625 +6354,6 @@
         </is>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F122">
-        <v>1</v>
-      </c>
-      <c r="G122">
-        <v>1</v>
-      </c>
-      <c r="H122">
-        <v>24</v>
-      </c>
-      <c r="I122">
-        <v>-1</v>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F123">
-        <v>1</v>
-      </c>
-      <c r="G123">
-        <v>1</v>
-      </c>
-      <c r="H123">
-        <v>38</v>
-      </c>
-      <c r="I123">
-        <v>-1</v>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F124">
-        <v>1</v>
-      </c>
-      <c r="G124">
-        <v>1</v>
-      </c>
-      <c r="H124">
-        <v>26</v>
-      </c>
-      <c r="I124">
-        <v>-1</v>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F125">
-        <v>1</v>
-      </c>
-      <c r="G125">
-        <v>1</v>
-      </c>
-      <c r="H125">
-        <v>27</v>
-      </c>
-      <c r="I125">
-        <v>-1</v>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F126">
-        <v>1</v>
-      </c>
-      <c r="G126">
-        <v>1</v>
-      </c>
-      <c r="H126">
-        <v>27</v>
-      </c>
-      <c r="I126">
-        <v>-1</v>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F127">
-        <v>1</v>
-      </c>
-      <c r="G127">
-        <v>1</v>
-      </c>
-      <c r="H127">
-        <v>24</v>
-      </c>
-      <c r="I127">
-        <v>-1</v>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F128">
-        <v>1</v>
-      </c>
-      <c r="G128">
-        <v>1</v>
-      </c>
-      <c r="H128">
-        <v>30</v>
-      </c>
-      <c r="I128">
-        <v>-1</v>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F129">
-        <v>1</v>
-      </c>
-      <c r="G129">
-        <v>1</v>
-      </c>
-      <c r="H129">
-        <v>22</v>
-      </c>
-      <c r="I129">
-        <v>-1</v>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F130">
-        <v>1</v>
-      </c>
-      <c r="G130">
-        <v>1</v>
-      </c>
-      <c r="H130">
-        <v>25</v>
-      </c>
-      <c r="I130">
-        <v>-1</v>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F131">
-        <v>1</v>
-      </c>
-      <c r="G131">
-        <v>1</v>
-      </c>
-      <c r="H131">
-        <v>38</v>
-      </c>
-      <c r="I131">
-        <v>-1</v>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F132">
-        <v>1</v>
-      </c>
-      <c r="G132">
-        <v>1</v>
-      </c>
-      <c r="H132">
-        <v>25</v>
-      </c>
-      <c r="I132">
-        <v>-1</v>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F133">
-        <v>1</v>
-      </c>
-      <c r="G133">
-        <v>1</v>
-      </c>
-      <c r="H133">
-        <v>26</v>
-      </c>
-      <c r="I133">
-        <v>-1</v>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F134">
-        <v>1</v>
-      </c>
-      <c r="G134">
-        <v>1</v>
-      </c>
-      <c r="H134">
-        <v>38</v>
-      </c>
-      <c r="I134">
-        <v>-1</v>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F135">
-        <v>1</v>
-      </c>
-      <c r="G135">
-        <v>1</v>
-      </c>
-      <c r="H135">
-        <v>32</v>
-      </c>
-      <c r="I135">
-        <v>-1</v>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F136">
-        <v>1</v>
-      </c>
-      <c r="G136">
-        <v>1</v>
-      </c>
-      <c r="H136">
-        <v>23</v>
-      </c>
-      <c r="I136">
-        <v>-1</v>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F137">
-        <v>1</v>
-      </c>
-      <c r="G137">
-        <v>1</v>
-      </c>
-      <c r="H137">
-        <v>26</v>
-      </c>
-      <c r="I137">
-        <v>-1</v>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F138">
-        <v>1</v>
-      </c>
-      <c r="G138">
-        <v>1</v>
-      </c>
-      <c r="H138">
-        <v>27</v>
-      </c>
-      <c r="I138">
-        <v>-1</v>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F139">
-        <v>1</v>
-      </c>
-      <c r="G139">
-        <v>1</v>
-      </c>
-      <c r="H139">
-        <v>24</v>
-      </c>
-      <c r="I139">
-        <v>-1</v>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F140">
-        <v>1</v>
-      </c>
-      <c r="G140">
-        <v>1</v>
-      </c>
-      <c r="H140">
-        <v>24</v>
-      </c>
-      <c r="I140">
-        <v>-1</v>
-      </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F141">
-        <v>1</v>
-      </c>
-      <c r="G141">
-        <v>1</v>
-      </c>
-      <c r="H141">
-        <v>26</v>
-      </c>
-      <c r="I141">
-        <v>-1</v>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F142">
-        <v>1</v>
-      </c>
-      <c r="G142">
-        <v>1</v>
-      </c>
-      <c r="H142">
-        <v>39</v>
-      </c>
-      <c r="I142">
-        <v>-1</v>
-      </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F143">
-        <v>1</v>
-      </c>
-      <c r="G143">
-        <v>1</v>
-      </c>
-      <c r="H143">
-        <v>24</v>
-      </c>
-      <c r="I143">
-        <v>-1</v>
-      </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F144">
-        <v>1</v>
-      </c>
-      <c r="G144">
-        <v>1</v>
-      </c>
-      <c r="H144">
-        <v>38</v>
-      </c>
-      <c r="I144">
-        <v>-1</v>
-      </c>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F145">
-        <v>1</v>
-      </c>
-      <c r="G145">
-        <v>1</v>
-      </c>
-      <c r="H145">
-        <v>26</v>
-      </c>
-      <c r="I145">
-        <v>-1</v>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F146">
-        <v>1</v>
-      </c>
-      <c r="G146">
-        <v>1</v>
-      </c>
-      <c r="H146">
-        <v>25</v>
-      </c>
-      <c r="I146">
-        <v>-1</v>
-      </c>
-      <c r="J146" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F147">
-        <v>1</v>
-      </c>
-      <c r="G147">
-        <v>1</v>
-      </c>
-      <c r="H147">
-        <v>23</v>
-      </c>
-      <c r="I147">
-        <v>-1</v>
-      </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F148">
-        <v>1</v>
-      </c>
-      <c r="G148">
-        <v>1</v>
-      </c>
-      <c r="H148">
-        <v>26</v>
-      </c>
-      <c r="I148">
-        <v>-1</v>
-      </c>
-      <c r="J148" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F149">
-        <v>1</v>
-      </c>
-      <c r="G149">
-        <v>1</v>
-      </c>
-      <c r="H149">
-        <v>27</v>
-      </c>
-      <c r="I149">
-        <v>-1</v>
-      </c>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F150">
-        <v>1</v>
-      </c>
-      <c r="G150">
-        <v>1</v>
-      </c>
-      <c r="H150">
-        <v>25</v>
-      </c>
-      <c r="I150">
-        <v>-1</v>
-      </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F151">
-        <v>1</v>
-      </c>
-      <c r="G151">
-        <v>1</v>
-      </c>
-      <c r="H151">
-        <v>21</v>
-      </c>
-      <c r="I151">
-        <v>-1</v>
-      </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F152">
-        <v>1</v>
-      </c>
-      <c r="G152">
-        <v>1</v>
-      </c>
-      <c r="H152">
-        <v>23</v>
-      </c>
-      <c r="I152">
-        <v>-1</v>
-      </c>
-      <c r="J152" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F153">
-        <v>1</v>
-      </c>
-      <c r="G153">
-        <v>1</v>
-      </c>
-      <c r="H153">
-        <v>24</v>
-      </c>
-      <c r="I153">
-        <v>-1</v>
-      </c>
-      <c r="J153" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F154">
-        <v>1</v>
-      </c>
-      <c r="G154">
-        <v>1</v>
-      </c>
-      <c r="H154">
-        <v>21</v>
-      </c>
-      <c r="I154">
-        <v>-1</v>
-      </c>
-      <c r="J154" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F155">
-        <v>1</v>
-      </c>
-      <c r="G155">
-        <v>1</v>
-      </c>
-      <c r="H155">
-        <v>38</v>
-      </c>
-      <c r="I155">
-        <v>-1</v>
-      </c>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F156">
-        <v>1</v>
-      </c>
-      <c r="G156">
-        <v>1</v>
-      </c>
-      <c r="H156">
-        <v>27</v>
-      </c>
-      <c r="I156">
-        <v>-1</v>
-      </c>
-      <c r="J156" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F157">
-        <v>1</v>
-      </c>
-      <c r="G157">
-        <v>1</v>
-      </c>
-      <c r="H157">
-        <v>26</v>
-      </c>
-      <c r="I157">
-        <v>-1</v>
-      </c>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F158">
-        <v>1</v>
-      </c>
-      <c r="G158">
-        <v>1</v>
-      </c>
-      <c r="H158">
-        <v>26</v>
-      </c>
-      <c r="I158">
-        <v>-1</v>
-      </c>
-      <c r="J158" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F159">
-        <v>1</v>
-      </c>
-      <c r="G159">
-        <v>1</v>
-      </c>
-      <c r="H159">
-        <v>27</v>
-      </c>
-      <c r="I159">
-        <v>-1</v>
-      </c>
-      <c r="J159" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F160">
-        <v>1</v>
-      </c>
-      <c r="G160">
-        <v>1</v>
-      </c>
-      <c r="H160">
-        <v>22</v>
-      </c>
-      <c r="I160">
-        <v>-1</v>
-      </c>
-      <c r="J160" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F161">
-        <v>1</v>
-      </c>
-      <c r="G161">
-        <v>1</v>
-      </c>
-      <c r="H161">
-        <v>39</v>
-      </c>
-      <c r="I161">
-        <v>-1</v>
-      </c>
-      <c r="J161" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F162">
-        <v>1</v>
-      </c>
-      <c r="G162">
-        <v>1</v>
-      </c>
-      <c r="H162">
-        <v>25</v>
-      </c>
-      <c r="I162">
-        <v>-1</v>
-      </c>
-      <c r="J162" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F163">
-        <v>1</v>
-      </c>
-      <c r="G163">
-        <v>1</v>
-      </c>
-      <c r="H163">
-        <v>27</v>
-      </c>
-      <c r="I163">
-        <v>-1</v>
-      </c>
-      <c r="J163" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F164">
-        <v>1</v>
-      </c>
-      <c r="G164">
-        <v>1</v>
-      </c>
-      <c r="H164">
-        <v>25</v>
-      </c>
-      <c r="I164">
-        <v>-1</v>
-      </c>
-      <c r="J164" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F165">
-        <v>1</v>
-      </c>
-      <c r="G165">
-        <v>1</v>
-      </c>
-      <c r="H165">
-        <v>24</v>
-      </c>
-      <c r="I165">
-        <v>-1</v>
-      </c>
-      <c r="J165" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F166">
-        <v>1</v>
-      </c>
-      <c r="G166">
-        <v>1</v>
-      </c>
-      <c r="H166">
-        <v>36</v>
-      </c>
-      <c r="I166">
-        <v>-1</v>
-      </c>
-      <c r="J166" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F167">
-        <v>1</v>
-      </c>
-      <c r="G167">
-        <v>1</v>
-      </c>
-      <c r="H167">
-        <v>25</v>
-      </c>
-      <c r="I167">
-        <v>-1</v>
-      </c>
-      <c r="J167" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F168">
-        <v>1</v>
-      </c>
-      <c r="G168">
-        <v>1</v>
-      </c>
-      <c r="H168">
-        <v>28</v>
-      </c>
-      <c r="I168">
-        <v>-1</v>
-      </c>
-      <c r="J168" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F169">
-        <v>1</v>
-      </c>
-      <c r="G169">
-        <v>1</v>
-      </c>
-      <c r="H169">
-        <v>23</v>
-      </c>
-      <c r="I169">
-        <v>-1</v>
-      </c>
-      <c r="J169" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F170">
-        <v>1</v>
-      </c>
-      <c r="G170">
-        <v>1</v>
-      </c>
-      <c r="H170">
-        <v>26</v>
-      </c>
-      <c r="I170">
-        <v>-1</v>
-      </c>
-      <c r="J170" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F171">
-        <v>1</v>
-      </c>
-      <c r="G171">
-        <v>1</v>
-      </c>
-      <c r="H171">
-        <v>38</v>
-      </c>
-      <c r="I171">
-        <v>-1</v>
-      </c>
-      <c r="J171" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F172">
-        <v>1</v>
-      </c>
-      <c r="G172">
-        <v>1</v>
-      </c>
-      <c r="H172">
-        <v>28</v>
-      </c>
-      <c r="I172">
-        <v>-1</v>
-      </c>
-      <c r="J172" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F173">
-        <v>1</v>
-      </c>
-      <c r="G173">
-        <v>1</v>
-      </c>
-      <c r="H173">
-        <v>30</v>
-      </c>
-      <c r="I173">
-        <v>-1</v>
-      </c>
-      <c r="J173" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F174">
-        <v>1</v>
-      </c>
-      <c r="G174">
-        <v>1</v>
-      </c>
-      <c r="H174">
-        <v>28</v>
-      </c>
-      <c r="I174">
-        <v>-1</v>
-      </c>
-      <c r="J174" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F175">
-        <v>1</v>
-      </c>
-      <c r="G175">
-        <v>1</v>
-      </c>
-      <c r="H175">
-        <v>28</v>
-      </c>
-      <c r="I175">
-        <v>-1</v>
-      </c>
-      <c r="J175" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F176">
-        <v>1</v>
-      </c>
-      <c r="G176">
-        <v>1</v>
-      </c>
-      <c r="H176">
-        <v>30</v>
-      </c>
-      <c r="I176">
-        <v>-1</v>
-      </c>
-      <c r="J176" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F177">
-        <v>1</v>
-      </c>
-      <c r="G177">
-        <v>1</v>
-      </c>
-      <c r="H177">
-        <v>23</v>
-      </c>
-      <c r="I177">
-        <v>-1</v>
-      </c>
-      <c r="J177" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F178">
-        <v>1</v>
-      </c>
-      <c r="G178">
-        <v>1</v>
-      </c>
-      <c r="H178">
-        <v>25</v>
-      </c>
-      <c r="I178">
-        <v>-1</v>
-      </c>
-      <c r="J178" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F179">
-        <v>1</v>
-      </c>
-      <c r="G179">
-        <v>1</v>
-      </c>
-      <c r="H179">
-        <v>35</v>
-      </c>
-      <c r="I179">
-        <v>-1</v>
-      </c>
-      <c r="J179" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F180">
-        <v>1</v>
-      </c>
-      <c r="G180">
-        <v>1</v>
-      </c>
-      <c r="H180">
-        <v>23</v>
-      </c>
-      <c r="I180">
-        <v>-1</v>
-      </c>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F181">
-        <v>1</v>
-      </c>
-      <c r="G181">
-        <v>1</v>
-      </c>
-      <c r="H181">
-        <v>21</v>
-      </c>
-      <c r="I181">
-        <v>-1</v>
-      </c>
-      <c r="J181" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F182">
-        <v>1</v>
-      </c>
-      <c r="G182">
-        <v>1</v>
-      </c>
-      <c r="H182">
-        <v>26</v>
-      </c>
-      <c r="I182">
-        <v>-1</v>
-      </c>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F183">
-        <v>1</v>
-      </c>
-      <c r="G183">
-        <v>1</v>
-      </c>
-      <c r="H183">
-        <v>24</v>
-      </c>
-      <c r="I183">
-        <v>-1</v>
-      </c>
-      <c r="J183" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F184">
-        <v>1</v>
-      </c>
-      <c r="G184">
-        <v>1</v>
-      </c>
-      <c r="H184">
-        <v>23</v>
-      </c>
-      <c r="I184">
-        <v>-1</v>
-      </c>
-      <c r="J184" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F185">
-        <v>1</v>
-      </c>
-      <c r="G185">
-        <v>1</v>
-      </c>
-      <c r="H185">
-        <v>25</v>
-      </c>
-      <c r="I185">
-        <v>-1</v>
-      </c>
-      <c r="J185" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F186">
-        <v>1</v>
-      </c>
-      <c r="G186">
-        <v>1</v>
-      </c>
-      <c r="H186">
-        <v>26</v>
-      </c>
-      <c r="I186">
-        <v>-1</v>
-      </c>
-      <c r="J186" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F187">
-        <v>1</v>
-      </c>
-      <c r="G187">
-        <v>1</v>
-      </c>
-      <c r="H187">
-        <v>27</v>
-      </c>
-      <c r="I187">
-        <v>-1</v>
-      </c>
-      <c r="J187" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F188">
-        <v>1</v>
-      </c>
-      <c r="G188">
-        <v>1</v>
-      </c>
-      <c r="H188">
-        <v>24</v>
-      </c>
-      <c r="I188">
-        <v>-1</v>
-      </c>
-      <c r="J188" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F189">
-        <v>1</v>
-      </c>
-      <c r="G189">
-        <v>1</v>
-      </c>
-      <c r="H189">
-        <v>26</v>
-      </c>
-      <c r="I189">
-        <v>-1</v>
-      </c>
-      <c r="J189" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F190">
-        <v>1</v>
-      </c>
-      <c r="G190">
-        <v>1</v>
-      </c>
-      <c r="H190">
-        <v>26</v>
-      </c>
-      <c r="I190">
-        <v>-1</v>
-      </c>
-      <c r="J190" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F191">
-        <v>1</v>
-      </c>
-      <c r="G191">
-        <v>1</v>
-      </c>
-      <c r="H191">
-        <v>27</v>
-      </c>
-      <c r="I191">
-        <v>-1</v>
-      </c>
-      <c r="J191" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F192">
-        <v>1</v>
-      </c>
-      <c r="G192">
-        <v>1</v>
-      </c>
-      <c r="H192">
-        <v>24</v>
-      </c>
-      <c r="I192">
-        <v>-1</v>
-      </c>
-      <c r="J192" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F193">
-        <v>1</v>
-      </c>
-      <c r="G193">
-        <v>1</v>
-      </c>
-      <c r="H193">
-        <v>25</v>
-      </c>
-      <c r="I193">
-        <v>-1</v>
-      </c>
-      <c r="J193" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F194">
-        <v>1</v>
-      </c>
-      <c r="G194">
-        <v>1</v>
-      </c>
-      <c r="H194">
-        <v>24</v>
-      </c>
-      <c r="I194">
-        <v>-1</v>
-      </c>
-      <c r="J194" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F195">
-        <v>1</v>
-      </c>
-      <c r="G195">
-        <v>1</v>
-      </c>
-      <c r="H195">
-        <v>31</v>
-      </c>
-      <c r="I195">
-        <v>-1</v>
-      </c>
-      <c r="J195" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F196">
-        <v>1</v>
-      </c>
-      <c r="G196">
-        <v>1</v>
-      </c>
-      <c r="H196">
-        <v>28</v>
-      </c>
-      <c r="I196">
-        <v>-1</v>
-      </c>
-      <c r="J196" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F197">
-        <v>1</v>
-      </c>
-      <c r="G197">
-        <v>1</v>
-      </c>
-      <c r="H197">
-        <v>21</v>
-      </c>
-      <c r="I197">
-        <v>-1</v>
-      </c>
-      <c r="J197" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F198">
-        <v>1</v>
-      </c>
-      <c r="G198">
-        <v>1</v>
-      </c>
-      <c r="H198">
-        <v>24</v>
-      </c>
-      <c r="I198">
-        <v>-1</v>
-      </c>
-      <c r="J198" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L198">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
